--- a/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
+++ b/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
   <si>
     <t>CTROLMODE</t>
   </si>
@@ -445,39 +445,187 @@
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
   <si>
+    <t>上位詢問配方的配方名稱</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4135</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPNO</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方編號</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>詢問配方查詢後把對應值搬到下列位置，如果查詢失敗，則都搬0</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=ASCII  F=浮點數</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5200~ 配方組別 R5300~ 配方名稱  這些區間不能有額外資料，不然模組回傳會異常，可先清00</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm由D9450~  警報響 觸發M6009 警報消 觸發M6010 同步Alarm M6011</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般參數</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10600</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令內容</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10012</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應訊息</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 成功切換  1 D10600命令錯誤  2 拒絕切換(爐內有板或是非Remote模式等等)  3 配方ID錯誤</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入以下欄位，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
+，若命令內容(D10600)為"PP_SELECT"就依據配方ID進行配方切換。</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換Remote / Local</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>透過M6042 / M6043 交握的指令</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LOCAL" "REMOTE"</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 成功切換  1 命令錯誤或拒絕切換 2 狀態未改變(R切R或是L切L)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換Start / Stop</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>"START" "STOP"</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PP_SELECT"</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈切換</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10540</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈訊號</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 關 2 開 3 閃爍</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 成功切換  1 錯誤 2 燈號相同</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鳴器控制</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入D10540，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
+，根據D10540切換藍燈</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入D10600，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
+，根據D10600內容，機台切換開始生產與停止生產</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入D10600，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
+，根據D10600內容，切換Remote/Local</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10542</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 關閉 2 開啟</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6234(收到後Off M6234)，並將指令寫入D10542，此命令不須回應</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6233(收到時請先不要Off) 並將值寫入R4136，查詢到配方後，將配方值搬到下表欄位，都搬完後 off M6233，如果查詢不到配方，請搬0</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
     <t>上位詢問後把詢問的配方名稱搬到此位置</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
   <si>
-    <t>上位詢問配方的配方名稱</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>R4135</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPNO</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方編號</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>詢問配方查詢後把對應值搬到下列位置，如果查詢失敗，則都搬0</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=ASCII  F=浮點數</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>R5200~ 配方組別 R5300~ 配方名稱  這些區間不能有額外資料，不然模組回傳會異常，可先清00</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm由D9450~  警報響 觸發M6009 警報消 觸發M6010 同步Alarm M6011</t>
+    <t>GPF-73G-N2 (固定值)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.29F (固定值)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(固定值)</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
 </sst>
@@ -770,39 +918,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" t="s">
-        <v>145</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -953,7 +1106,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -965,7 +1118,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -977,7 +1130,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -989,7 +1142,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1001,7 +1154,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1166,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1025,7 +1178,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1190,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1202,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1061,550 +1214,878 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="42" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="42" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="42" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="E49" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" s="12" customFormat="1">
+      <c r="A53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" s="12" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" s="12" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A57" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D65" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>94</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B66" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B68" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="C68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B69" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B70" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>129</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B101" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="17">
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B33:E33"/>
   </mergeCells>
   <phoneticPr fontId="133" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
+++ b/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="217">
   <si>
     <t>CTROLMODE</t>
   </si>
@@ -509,11 +509,6 @@
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
   <si>
-    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入以下欄位，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
-，若命令內容(D10600)為"PP_SELECT"就依據配方ID進行配方切換。</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
     <t>切換Remote / Local</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
@@ -538,10 +533,6 @@
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
   <si>
-    <t>"PP_SELECT"</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
     <t>藍燈切換</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
@@ -563,11 +554,6 @@
   </si>
   <si>
     <t>蜂鳴器控制</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程: 上位觸發M6042(收到後OFF) 上位寫入D10540，命令執行完將結果搬至D10012，On M6043通知模組(模組會自行Off M6043)
-，根據D10540切換藍燈</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
   <si>
@@ -626,6 +612,136 @@
   </si>
   <si>
     <t>1(固定值)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6240(收到後OFF) 上位寫入以下欄位，命令執行完將結果搬至D10013，On M6241通知模組(模組會自行Off)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程: 上位觸發M6242(收到後OFF) 上位寫入D10540，命令執行完將結果搬至D10014，On M6243通知模組(模組會自行Off)
+，根據D10540切換藍燈，藍燈切換時觸發M6116上報事件，藍燈燈號狀態搬移到 D9590 D9591</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9590</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9591</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6101</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6102</t>
+  </si>
+  <si>
+    <t>M6103</t>
+  </si>
+  <si>
+    <t>M6104</t>
+  </si>
+  <si>
+    <t>M6105</t>
+  </si>
+  <si>
+    <t>M6106</t>
+  </si>
+  <si>
+    <t>M6107</t>
+  </si>
+  <si>
+    <t>M6108</t>
+  </si>
+  <si>
+    <t>M6109</t>
+  </si>
+  <si>
+    <t>M6110</t>
+  </si>
+  <si>
+    <t>M6111</t>
+  </si>
+  <si>
+    <t>M6112</t>
+  </si>
+  <si>
+    <t>M6113</t>
+  </si>
+  <si>
+    <t>M6114</t>
+  </si>
+  <si>
+    <t>M6116</t>
+  </si>
+  <si>
+    <t>M6117</t>
+  </si>
+  <si>
+    <t>控制模式切換</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備機況收集-機況</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-UV燈使用模式</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-當前使用配方名變更訊號</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-修改配方名</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-配方切換成功</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-Panel生產開始訊號</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-Panel生產結束訊號</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-Lot生產開始訊號</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-Lot生產結束訊號</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-配方程式安裝開始</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-配方程式安裝結束</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-開始進板</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產訊號收集-停止進板</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备生产讯号收集-信号灯状态</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6115</t>
     <phoneticPr fontId="133" type="noConversion"/>
   </si>
 </sst>
@@ -918,43 +1034,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="9" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1215,234 +1331,237 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="42" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" ht="42" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>172</v>
+      <c r="E30" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="42" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" ht="42" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="18" t="s">
+      <c r="E35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="10" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="42" customHeight="1">
+      <c r="A39" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="20" t="s">
+      <c r="D40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="42" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>167</v>
+      <c r="D41" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="11"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>162</v>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>172</v>
@@ -1450,642 +1569,799 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
+      <c r="A49" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1">
+      <c r="A52" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" s="6" customFormat="1">
+      <c r="A53" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A56" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" s="12" customFormat="1">
-      <c r="A53" s="7" t="s">
+      <c r="D57" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" s="12" customFormat="1">
-      <c r="A54" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:5" s="12" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A57" s="29" t="s">
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" t="s">
-        <v>182</v>
-      </c>
-    </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>183</v>
+      <c r="D64" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>125</v>
-      </c>
-      <c r="B97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>128</v>
-      </c>
-      <c r="B100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>21</v>
+      <c r="C100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="17.25">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="50"/>
+    </row>
+    <row r="107" spans="1:4" ht="17.25">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="50"/>
+    </row>
+    <row r="108" spans="1:4" ht="17.25">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25">
+      <c r="A110" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17.25">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17.25">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17.25">
+      <c r="A117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17.25">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="51" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <phoneticPr fontId="133" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
+++ b/秦皇島(宏啟勝)/GPF-73G-N2/GPF-73G-N2點位.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="226">
   <si>
     <t>CTROLMODE</t>
   </si>
@@ -685,64 +685,99 @@
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
+    <t>M6115</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓力錶1</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓力錶3</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓力錶2</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：灯灭，2：灯常亮，3：灯闪烁</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 關 2: 開</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 升溫 2: 恆溫 3: 冷卻 4: 生產結束 5: 手動模式</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈狀態 目前</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈狀態 上一個狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐門狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>運作狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
     <t>設備機況收集-機況</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-UV燈使用模式</t>
+    <t>設備模式變更</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-當前使用配方名變更訊號</t>
+    <t>配方切換</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-修改配方名</t>
+    <t>設備生產訊號收集-新增配方名</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-配方切換成功</t>
+    <t>設備生產訊號收集-刪除配方名</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-Panel生產開始訊號</t>
+    <t>配方內容變更</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>開門狀態變更</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-Panel生產結束訊號</t>
+    <t>生產狀態變更</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-Lot生產開始訊號</t>
+    <t>生產開始</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-Lot生產結束訊號</t>
+    <t>生產結束</t>
     <phoneticPr fontId="135" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-配方程式安裝開始</t>
+    <t>藍色信號燈狀態變更</t>
     <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-配方程式安裝結束</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-開始進板</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-停止進板</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备生产讯号收集-信号灯状态</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>M6115</t>
-    <phoneticPr fontId="133" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1034,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1048,452 +1083,452 @@
     <col min="4" max="4" width="81.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="45" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C20" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="45" t="s">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="42" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="42" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="27" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="42" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="42" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="42" customHeight="1">
-      <c r="A39" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1508,182 +1543,185 @@
         <v>152</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="21"/>
+      <c r="B44" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="42" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="11" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="36" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="40" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" s="6" customFormat="1">
-      <c r="A52" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" s="6" customFormat="1">
-      <c r="A53" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" spans="1:5" s="6" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A56" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>48</v>
@@ -1692,279 +1730,286 @@
         <v>135</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="6" customFormat="1">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" s="6" customFormat="1">
+      <c r="A59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A62" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="43" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D72" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>21</v>
@@ -1973,10 +2018,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
@@ -1985,10 +2030,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
@@ -1997,10 +2042,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
@@ -2009,10 +2054,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1</v>
@@ -2021,10 +2066,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
@@ -2033,10 +2078,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
@@ -2045,10 +2090,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>21</v>
@@ -2057,10 +2102,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
@@ -2069,10 +2114,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1</v>
@@ -2081,10 +2126,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>21</v>
@@ -2093,10 +2138,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>21</v>
@@ -2105,10 +2150,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>21</v>
@@ -2117,10 +2162,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>21</v>
@@ -2129,10 +2174,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1</v>
@@ -2141,10 +2186,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>21</v>
@@ -2153,10 +2198,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
@@ -2165,10 +2210,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>21</v>
@@ -2177,10 +2222,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
@@ -2189,10 +2234,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1</v>
@@ -2201,170 +2246,290 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="102" spans="1:4" ht="17.25">
-      <c r="A102" t="s">
-        <v>185</v>
-      </c>
-      <c r="B102" s="48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17.25">
-      <c r="A103" t="s">
-        <v>186</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="17.25">
-      <c r="A104" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="17.25">
-      <c r="A105" t="s">
-        <v>188</v>
-      </c>
-      <c r="B105" s="49" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="17.25">
-      <c r="A106" t="s">
-        <v>189</v>
-      </c>
-      <c r="B106" s="50"/>
-    </row>
-    <row r="107" spans="1:4" ht="17.25">
-      <c r="A107" t="s">
-        <v>190</v>
-      </c>
-      <c r="B107" s="50"/>
-    </row>
-    <row r="108" spans="1:4" ht="17.25">
-      <c r="A108" t="s">
-        <v>191</v>
-      </c>
-      <c r="B108" s="49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="17.25">
-      <c r="A109" t="s">
-        <v>192</v>
-      </c>
-      <c r="B109" s="49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="17.25">
-      <c r="A110" t="s">
-        <v>193</v>
-      </c>
-      <c r="B110" s="49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="17.25">
-      <c r="A111" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="49" t="s">
-        <v>208</v>
-      </c>
+      <c r="C110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1"/>
     </row>
     <row r="112" spans="1:4" ht="17.25">
       <c r="A112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B112" s="49" t="s">
-        <v>209</v>
+        <v>185</v>
+      </c>
+      <c r="B112" s="51" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17.25">
       <c r="A113" t="s">
-        <v>196</v>
-      </c>
-      <c r="B113" s="49" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="B113" s="52" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25">
       <c r="A114" t="s">
-        <v>197</v>
-      </c>
-      <c r="B114" s="49" t="s">
-        <v>211</v>
+        <v>187</v>
+      </c>
+      <c r="B114" s="52" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25">
       <c r="A115" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="49" t="s">
-        <v>212</v>
+        <v>188</v>
+      </c>
+      <c r="B115" s="52" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25">
       <c r="A116" t="s">
-        <v>216</v>
-      </c>
-      <c r="B116" s="51" t="s">
-        <v>214</v>
+        <v>189</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25">
       <c r="A117" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="49" t="s">
-        <v>215</v>
+        <v>190</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25">
       <c r="A118" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17.25">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17.25">
+      <c r="A120" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17.25">
+      <c r="A121" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="52"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.25">
+      <c r="A122" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="52"/>
+    </row>
+    <row r="123" spans="1:2" ht="17.25">
+      <c r="A123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="52"/>
+    </row>
+    <row r="124" spans="1:2" ht="17.25">
+      <c r="A124" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" s="52"/>
+    </row>
+    <row r="125" spans="1:2" ht="17.25">
+      <c r="A125" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125" s="52"/>
+    </row>
+    <row r="126" spans="1:2" ht="17.25">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17.25">
+      <c r="A127" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17.25">
+      <c r="A128" t="s">
         <v>200</v>
       </c>
-      <c r="B118" s="51" t="s">
-        <v>213</v>
+      <c r="B128" s="52" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A68:D68"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A61:D61"/>
   </mergeCells>
   <phoneticPr fontId="133" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12">
+      <formula1>"A,B,BOOLEAN,I1,I2,I4,I8,F4,F8,U1,U2,U4,U8"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
